--- a/data/Places.xlsx
+++ b/data/Places.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Url</t>
         </is>
       </c>
     </row>
@@ -1932,6 +1932,18 @@
       <c r="D75" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/places/74.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/places/0.png</t>
         </is>
       </c>
     </row>
